--- a/data/issue category.xlsx
+++ b/data/issue category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daljeet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7334C399-1868-411D-A073-12A10A44DEAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8D857-3CE3-406C-BC4E-8C8C1ADF50BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{71196FBF-F77C-4191-BBFC-56D8905A1F1C}"/>
   </bookViews>
@@ -17,14 +17,19 @@
     <sheet name="Jan 25" sheetId="2" r:id="rId2"/>
     <sheet name="Feb 25" sheetId="3" r:id="rId3"/>
     <sheet name="Mar 25" sheetId="4" r:id="rId4"/>
+    <sheet name="Apr 25" sheetId="5" r:id="rId5"/>
+    <sheet name="May 25" sheetId="6" r:id="rId6"/>
+    <sheet name="Jun 25" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Apr 25'!$A$1:$L$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feb 25'!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jan 25'!$A$1:$K$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mar 25'!$A$1:$K$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'May 25'!$A$1:$L$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="773">
   <si>
     <t xml:space="preserve">New Masterdata addition done by users to be included in all relevant modules as new materials added in either receiver track or sender track </t>
   </si>
@@ -1776,6 +1781,759 @@
   <si>
     <t>Jharia</t>
   </si>
+  <si>
+    <t>TSJ - FP</t>
+  </si>
+  <si>
+    <t>Hot Metal Inbound Integration Action Issue</t>
+  </si>
+  <si>
+    <t>Ravindra Kumar Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to access in Anaplan. Error screenshot as below.
+</t>
+  </si>
+  <si>
+    <t>Anaplan was not loading user to restart his system/connect to IT Helpdesk.</t>
+  </si>
+  <si>
+    <t>Moisture content comes from Other Cost's track through Import Action but user was not aware about the flow of the data.</t>
+  </si>
+  <si>
+    <t>Pushig data from one version to another with in Iron Making Track.</t>
+  </si>
+  <si>
+    <t>User was not aware how and where to push the data from one version to another.</t>
+  </si>
+  <si>
+    <t>Pushig data from IM track to other tracks such as Hot Metal</t>
+  </si>
+  <si>
+    <t>User was not aware how to push data from IM track to other traks such as SM, SS etc.</t>
+  </si>
+  <si>
+    <t>Visibility of Inbound/Outbound data in Integration Model.</t>
+  </si>
+  <si>
+    <t>User was not aware how and where to see the inbound and outbound data in Integration Model while all the required pages was available.</t>
+  </si>
+  <si>
+    <t>OMQ</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Cost Center addition</t>
+  </si>
+  <si>
+    <t>WB,OMQ &amp; JH</t>
+  </si>
+  <si>
+    <t>Urja,Suraj, Komal</t>
+  </si>
+  <si>
+    <t>mismatch in Working and Integrated version</t>
+  </si>
+  <si>
+    <t>Urja</t>
+  </si>
+  <si>
+    <t>incorrect NR in OMQ POP</t>
+  </si>
+  <si>
+    <t>As confirmed Bhavika Bansal already pushed the wet coal requirement to Integration Model, Other Cost need to run the import action to update the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inbound Action wasn’t ran &amp; V2V data movement Action Issue</t>
+  </si>
+  <si>
+    <t>Compensation cess is not been added in HMC Cost sheet</t>
+  </si>
+  <si>
+    <t>Grid is published in Coke’s cost sheet</t>
+  </si>
+  <si>
+    <t>Lime Plant's heirarchy regrouping/planning changes from SM to IM</t>
+  </si>
+  <si>
+    <t>Instead of discussing the requirements first with other loactaions he gave the requirements to IT but later he confirmed, that Lime Plant grouped under Steel making in other Location like TSM, TSK.  So, we go with same grouping for TSJ. This kind of unharmonised requirements planning time during planning.</t>
+  </si>
+  <si>
+    <t>User Awareness&amp; New GLs addition(Values for Pellet Plant were missing in Integration Model, added new GLs and pulled data in IM). There is a logic to enter IT Chargeback Allocation% similar to Depreciation which we have seen earlier, before checking in final IT Chargeback grid you have to enter allocation%. In such cases pls take reference of FY’25 App</t>
+  </si>
+  <si>
+    <t>GW is not correctly flowing in working n submission.-&gt;</t>
+  </si>
+  <si>
+    <t>User Awareness(User to set versions properly while running V2V actions)</t>
+  </si>
+  <si>
+    <t>Procurement is not able to see charcoal qty &amp; Pet coke qty which I have pushed</t>
+  </si>
+  <si>
+    <t>User Awareness(Already pushed to integration model)</t>
+  </si>
+  <si>
+    <t>Raw bentonite cost is bulk procurement is not seen</t>
+  </si>
+  <si>
+    <t>User Awareness(Planning is done under different pellet’s cost centre)</t>
+  </si>
+  <si>
+    <t>Coke Breeze cost in Pellet cost sheet is not flowing correctly</t>
+  </si>
+  <si>
+    <t>User Awareness(As confirmed since Coke Plant’s cost sheet is not completed due to which coke breeze cost is not updated)-</t>
+  </si>
+  <si>
+    <t>Please help in pushing HMC coke cost to TSK n TSM</t>
+  </si>
+  <si>
+    <t>IT Issue(Process to refresh cost sheets was not working properly)</t>
+  </si>
+  <si>
+    <t>Mismatch in Pellet’s Depreciation</t>
+  </si>
+  <si>
+    <t>User Awareness(whenever new GL is coming we have to do the CC to CH mappings)</t>
+  </si>
+  <si>
+    <t>The grid to do the manual input in dashboards, user to check and find.</t>
+  </si>
+  <si>
+    <t>IO freight is not coming from Central Assumptions</t>
+  </si>
+  <si>
+    <t>As we have published all the views user can check the data in integration and then send the comunications accordingly</t>
+  </si>
+  <si>
+    <t>Utility nos. not available in Blast Furnace's page</t>
+  </si>
+  <si>
+    <t>There was a filter applied due to which grid was coming blank</t>
+  </si>
+  <si>
+    <t>Some support CC were missing in master data due to which data was not getting populated in these CCs while pulling the dep data.</t>
+  </si>
+  <si>
+    <t>There was an authorization issue in the data import action</t>
+  </si>
+  <si>
+    <t>RM user had planned the data in different material.</t>
+  </si>
+  <si>
+    <t>These were the new addition in FY26, we have to do proper driver setups. Check and pull the rates properly</t>
+  </si>
+  <si>
+    <t>Addtion of Iron Ore Concentrate CLO-Noamundi under Sinter Plant</t>
+  </si>
+  <si>
+    <t>This is  the new addition in FY26, we have to do proper driver setups. Check and pull the rates properly</t>
+  </si>
+  <si>
+    <t>Page was not refreshed properly</t>
+  </si>
+  <si>
+    <t>Version Setup was not setup properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Depreciation issue - Anaplan ABP FY'26</t>
+  </si>
+  <si>
+    <t>One CC was missing in dep data</t>
+  </si>
+  <si>
+    <t>Freight cost to TSM for Vijaya-2 fines is not flowing</t>
+  </si>
+  <si>
+    <t>As discussed and confirmed over teams, we have developed provision for Inputting the freight values of purchased products like:- EPA Pellet and purchase pellet etc… in Other Cost and pulled the total cost(Material Cost + Freight) in  IM Track</t>
+  </si>
+  <si>
+    <t>Bipin Swain</t>
+  </si>
+  <si>
+    <t>R&amp;M cost input assistance</t>
+  </si>
+  <si>
+    <t>Cost of CC AU3408 not flowing to CC AU3406</t>
+  </si>
+  <si>
+    <t>Generation nos for BYPR gases not appearing in Cost Sheet</t>
+  </si>
+  <si>
+    <t>LP steam rate not flowing to IM</t>
+  </si>
+  <si>
+    <t>LP steam was not planned in SS this year</t>
+  </si>
+  <si>
+    <t>Abhinandan Gupta</t>
+  </si>
+  <si>
+    <t>Assistance in Cost Closure</t>
+  </si>
+  <si>
+    <t>Kalamang Change in WIP is appearing incorrect as it is showing closing stock whereas in actual there is no closing stock as per system</t>
+  </si>
+  <si>
+    <t>Formula correction was required</t>
+  </si>
+  <si>
+    <t>OMQ &amp; JH</t>
+  </si>
+  <si>
+    <t>suraj</t>
+  </si>
+  <si>
+    <t>Version movement from Working to Integration</t>
+  </si>
+  <si>
+    <t>GeoP&amp;L incorrect</t>
+  </si>
+  <si>
+    <t>ABP outbound action issue in PC(Tinplate)</t>
+  </si>
+  <si>
+    <t>Formula Update Anaplan</t>
+  </si>
+  <si>
+    <t>Formula Update</t>
+  </si>
+  <si>
+    <t>Data is not flowing in SiMn 60/15 in Closing (Tons)</t>
+  </si>
+  <si>
+    <t>Mappings updation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New  Action Creation </t>
+  </si>
+  <si>
+    <t>Error in running outbound action in Anaplan Other Cost Freight</t>
+  </si>
+  <si>
+    <t>Worshop</t>
+  </si>
+  <si>
+    <t>Allocated GAGW to be included in OP dashboard</t>
+  </si>
+  <si>
+    <t>Mapping change of DI products to PI (4)</t>
+  </si>
+  <si>
+    <t>Manual input screen for working capital-inventory for geo p/l integration</t>
+  </si>
+  <si>
+    <t>Depreciation- Integration movement</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>No data in PY app- Inventory Page</t>
+  </si>
+  <si>
+    <t>Correction in Pnote- Trial Mapping</t>
+  </si>
+  <si>
+    <t>backend changes required</t>
+  </si>
+  <si>
+    <t>Rate incorrectly flowing for Coke Breeze. It is flowing from 2 places.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per the existing logics rate for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Coke Breeze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> were flowing from both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Bulk Procurement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> CP06.4: Overall Coke Material Balance &amp; Cost Matbal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, as requested we have included an exception to only consider Cost Matbal modules rate for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Coke Breeze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Sinter Cost sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>New Mateiral silico carbide not in integration</t>
+  </si>
+  <si>
+    <t>Rej Billet Rate issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard rate of rejected billet is Rs.20000/t, however in Anaplan it is reflected as Rs 850/t. Please find below screenshot for your reference.
+Request you to look into it and do the needful.
+</t>
+  </si>
+  <si>
+    <t>Carbon Cored Wire not flowing to cost sheet</t>
+  </si>
+  <si>
+    <t>Dolomite Bhutan rate issue with CSP team</t>
+  </si>
+  <si>
+    <t>HM rate and IO rate flow issue</t>
+  </si>
+  <si>
+    <t>Guided user for Despatch Cost Journey</t>
+  </si>
+  <si>
+    <t>Guided user for Geo PL Recon</t>
+  </si>
+  <si>
+    <t>authority issue while pulling hot metal production from integration model</t>
+  </si>
+  <si>
+    <t>scrap rates are still not flowing correctly in Anaplan for FP vertical</t>
+  </si>
+  <si>
+    <t>Diff between IBMD team offline working and data input by team in anapaln</t>
+  </si>
+  <si>
+    <t>Mismatc in ferro alloy rate</t>
+  </si>
+  <si>
+    <t>Diff between offline excel and data updated by CSP team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEP01_Depreciation from Finance Model </t>
+  </si>
+  <si>
+    <t>Support cost centre was missing</t>
+  </si>
+  <si>
+    <t>Regarding standard rates of Scrap in Anaplan</t>
+  </si>
+  <si>
+    <t>Rates yet to be udpated by IBMD team</t>
+  </si>
+  <si>
+    <t>Shared Services rates not matching with excel</t>
+  </si>
+  <si>
+    <t>Rates updated by SS differ from offline working</t>
+  </si>
+  <si>
+    <t>difference in CMG wages across all facilities of FP</t>
+  </si>
+  <si>
+    <t>CMG Wages updated by SS differ from offline working</t>
+  </si>
+  <si>
+    <t>Material rate not matching with the rate considered in FP-ABP cost sheet</t>
+  </si>
+  <si>
+    <t>mismatch in rate pushed by CSP and offline working</t>
+  </si>
+  <si>
+    <t>CMG wages in LD3 is still appearing as 2.78 cr instead of 2.54 cr</t>
+  </si>
+  <si>
+    <t>Ferro Alloy rate mismatch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dolomite Bhutan rate was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Rs-3,304/t during ABP finalisation now it is reflecting much lower Rs-1817.25/t in Anaplan.</t>
+    </r>
+  </si>
+  <si>
+    <t>DS Compound rate mismatch</t>
+  </si>
+  <si>
+    <t>Rate of DS compound is also mismatched in Anaplan. There is slightly difference in rate of Mag97 in April’25 and speed lime rate are mismatched in every quarter.</t>
+  </si>
+  <si>
+    <t>Industrial Gases rate mismatch</t>
+  </si>
+  <si>
+    <t>Rates of below mentioned Industrial gases are not matching in Anaplan.</t>
+  </si>
+  <si>
+    <t>JADSLC rates are reflecting higher in Anaplan</t>
+  </si>
+  <si>
+    <t>Rate updated by Procurement team in anaplan is not matching with SM offline working.</t>
+  </si>
+  <si>
+    <t>Unit of quantity is not visible even after drilldown</t>
+  </si>
+  <si>
+    <t>As per existing logic, units are not being integrated.</t>
+  </si>
+  <si>
+    <t>Deviation in SS costand Industrial Gases rate and Power</t>
+  </si>
+  <si>
+    <t>Data pushed by SS team in integration not matchgin with SM offline file</t>
+  </si>
+  <si>
+    <t>Deviation in Ferro alloy rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In LD2 we are adverse by Rs. 1.99 cr.
+In LD3 we are favorable by 2.63cr.
+Rate updated by Bulk team mismathed with offline excel
+</t>
+  </si>
+  <si>
+    <t>WRP and remelting rate mismatch</t>
+  </si>
+  <si>
+    <t>Rate updated by IBMD team not matching with offline wokring of SM team</t>
+  </si>
+  <si>
+    <t>Ferro Niobium with phos 0.5% is not reflecting in Anaplan.</t>
+  </si>
+  <si>
+    <t>LD gas generated mismatch - SS team</t>
+  </si>
+  <si>
+    <t>SS team were not able to close the gap hence manual provision given in SM</t>
+  </si>
+  <si>
+    <t>Skin pass mill month on month work cost is matching but there is slightly difference in FY’26.</t>
+  </si>
+  <si>
+    <t>Soumitro Sarangi</t>
+  </si>
+  <si>
+    <t>Guided user on resolution of material balance CRME shutwdown issue</t>
+  </si>
+  <si>
+    <t>Despite a planned shutdown, as per offline excel there were HR transfers planned from TSK (4KT) and inhouse (10 KT )from TSCR and HSM. This issue was first identified in Anaplan as part of control checks. Since we couldnt correct the offline excel , as suggested by TSJ team for adjustment a right place for adjustment was proposed by ITS  and the same was closed for matching Saleable production</t>
+  </si>
+  <si>
+    <t>Guided user on the resolution of CRME inventory diff</t>
+  </si>
+  <si>
+    <t>The impact of adjustment in CRME material balance was later identified in inventory and a similar adjustmetn was made in inventory as well.</t>
+  </si>
+  <si>
+    <t>Guided user on how to udpate transfer data in material balance</t>
+  </si>
+  <si>
+    <t>Guided user on where to check WCDC and explained the working</t>
+  </si>
+  <si>
+    <t>Guided user on how to udpate freight data by manual override option for downstream</t>
+  </si>
+  <si>
+    <t>Proposed the solution for mismatch in CRM B inventory</t>
+  </si>
+  <si>
+    <t>HR from TSM was not included in wt average, same was identified by ITS and communicated with SM team.</t>
+  </si>
+  <si>
+    <t>All required Views and Actions are published for inbound and outbond data movement, user can check the data after pulling or pushing the data in system only and send the communications to other team members.</t>
+  </si>
+  <si>
+    <t>Purchased Coke Breeze' Weighted Avg Cost</t>
+  </si>
+  <si>
+    <t>Instead of discussing the requirements first with respective stake holdrs gave the requirements to IT, we developed and released the same day but later users confirmed that this is not required this as they havent planned this in their working excel . This kind of unharmonised/unconfirmed requirements planning time during planning.</t>
+  </si>
+  <si>
+    <t>Extruded Briquette’s Cost(Rs/T) was not flowing to its cost sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(New Cost Head Addition)-&gt;New Development </t>
+  </si>
+  <si>
+    <t>TSG’s Pellet Consumption Cost(Rs/T) mismatch</t>
+  </si>
+  <si>
+    <t>Both TSLP and TSJ’s users awareness</t>
+  </si>
+  <si>
+    <t>BRPL pellet consumption needs to be built up</t>
+  </si>
+  <si>
+    <t>Rates for Purchase Pellet and EPA Pellet were already pushed to integration Model by Central Assumption’s Team but TSJ BAGs haven’t pulled to spoke)-&gt; User awareness.</t>
+  </si>
+  <si>
+    <t>Residual Fines TSLPJ not reflected in SP cost sheet-&gt; BAGs Issue</t>
+  </si>
+  <si>
+    <t>TSLP wasn’t pushed and checked qty properly in Integration model because TSJ’s sinter plant was not available in target module(IT’s Mistake), also TSJ’s users didn’t know from where this qty and rates will flow</t>
+  </si>
+  <si>
+    <t>Residual Fines TSLPJ not reflected in SP cost sheet-&gt; IT issue</t>
+  </si>
+  <si>
+    <t>Temporary Provision to input Hot Metal’s rate manually to expedite the process.</t>
+  </si>
+  <si>
+    <t>As confirmed and requested below, we have given a temporary provision to enter Hot Metal’s rate manually just to expedite the process but finally we have to match in IM track and push all the rates through Outbound actions only to maintain the integrity and consistency of the system and whole process. We will remove this provision once IM BAG will match and push the final rates to Integration Model using the Outbound actions. This kind of request can raise the question on the system's integrity and consistency.</t>
+  </si>
+  <si>
+    <t>Limestones and DRI Sintering mismatch in RMBB</t>
+  </si>
+  <si>
+    <t>Qty was not pushed to Bulk i.e. rate was not flowing</t>
+  </si>
+  <si>
+    <t>Residual TSLP Fines not flowing properly</t>
+  </si>
+  <si>
+    <t>-&gt; It is coming through TSG and consuming on the basis of Manual Production instead of Captive Ore, freight is missing</t>
+  </si>
+  <si>
+    <t>Vijaya Fines mapping is missing in Geo P&amp;L</t>
+  </si>
+  <si>
+    <t>While planning for any new material first time user should get all the required material to GL mappings in advance to get their impact in Geo P&amp;L</t>
+  </si>
+  <si>
+    <t>Impact of Lump Sponge Transfered from TSG.</t>
+  </si>
+  <si>
+    <t>This material was getting transferred but not getting consumed in  Briquette Plant and BF due to which Geo P&amp;L was not getting matched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extruded Briequette, Ferroshot and ASRF Costs are  not flowing to Geo P&amp;L </t>
+  </si>
+  <si>
+    <t>User havent planned these costs properly as done in FY'25 instead of which they have done direct manual adjustments due to which the cost is not flowing to Geo P&amp;L.</t>
+  </si>
+  <si>
+    <t>Petro Coke, Extrued Briquette, Residual TSLP Fines not flowing properly in Geo P&amp;L</t>
+  </si>
+  <si>
+    <t>This material was getting transferred but not getting consumed in  Briquette Plant and BF due to which this is having impact over  Inventory and Geo P&amp;L.</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>West Bokaro Inventory to Integration</t>
+  </si>
+  <si>
+    <t>We have entered opening stock in QSE but are still unable to view the inventory for the same</t>
+  </si>
+  <si>
+    <t>Geo P&amp;L Closure</t>
+  </si>
+  <si>
+    <t>Anshu Mishra</t>
+  </si>
+  <si>
+    <t>TSJ GW Geo P&amp;L data mismatch -  Anaplan Other Cost</t>
+  </si>
+  <si>
+    <t>sursain singh</t>
+  </si>
+  <si>
+    <t>ISWP cost sheet data flow to FP</t>
+  </si>
+  <si>
+    <t>M&amp;S to SM integration LP-ABP</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>Mill wise NR planning not done in anaplan</t>
+  </si>
+  <si>
+    <t>Geo PL Nitrogen Consumption</t>
+  </si>
+  <si>
+    <t>Formula updation for multiplying 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference in SPC Cost  </t>
+  </si>
+  <si>
+    <t>differences between the file shared for SPC &amp; data uploaded in Anaplan by SPC team, to match this a manual grid was provided to SM team for SPC EPA and Freight adjustment</t>
+  </si>
+  <si>
+    <t>Change in TSM inventory Rate</t>
+  </si>
+  <si>
+    <t>This last minute change in HR rate by TSM impacted the wt average cost of CRMB due to which a manual provision for override was given for TSJ SM Team</t>
+  </si>
+  <si>
+    <t>Diff in GA Cost</t>
+  </si>
+  <si>
+    <t>Diff found between GA shared by team and SM teams offline excel, to match manual provision given to override the diff</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Daljeet Kaur</t>
+  </si>
+  <si>
+    <t>POP Pallet Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has created the module in integration for POP Pallet ( FP30_POP:Pellet_TSG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration in Financial Planning </t>
+  </si>
+  <si>
+    <t>model for below combination:
+BA&gt;PC
+ISWP wire mill&lt;&lt;Secondary products
+Metaliks pig iron&lt;&lt;secondary products
+Tinplate&lt;&lt;Secondary products</t>
+  </si>
+  <si>
+    <t>ABP Booklet-Issues</t>
+  </si>
+  <si>
+    <t>ABP Booklet time range has been corrected on the app</t>
+  </si>
+  <si>
+    <t>Time filter/time context selector  issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6 Profit &amp; Loss Schedule by Columnar -Actual | Anaplan- time context selector not working
+1.7 Profit &amp; Loss Report by Columnar - Actual | Anaplan- time filter not required
+1.8 Schedule to Balance sheet - Actual | Anaplan-time context selector - not available to make the selection
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload of Opening Trial Balance</t>
+  </si>
+  <si>
+    <t>Numbers entered in CSV templet wrongly.</t>
+  </si>
+  <si>
+    <t>Please check the difference in DI geo PL - revenue from sale is not matching in Geo PL which should be same as Operating profit.</t>
+  </si>
+  <si>
+    <t>Ankul Kumar, Ijas</t>
+  </si>
+  <si>
+    <t>TSG coke coming twice in Geo</t>
+  </si>
+  <si>
+    <t>Other Cost</t>
+  </si>
+  <si>
+    <t>TSM GW</t>
+  </si>
+  <si>
+    <t>Monika Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference of -50.8lakhs in TSM-GW </t>
+  </si>
+  <si>
+    <t>User to respond with gap analysis and action</t>
+  </si>
 </sst>
 </file>
 
@@ -1784,7 +2542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +2678,49 @@
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2095,10 +2896,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2339,8 +3141,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2361,6 +3228,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet7"/>
       <sheetName val="Jan 25"/>
       <sheetName val="Feb 25"/>
       <sheetName val="Mar 25"/>
@@ -2396,6 +3264,7 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11636,4 +12505,6205 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C43AED0-5933-4E24-B2CE-CEB4E87BEE72}">
+  <dimension ref="A1:L151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="110" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="29">
+      <c r="A2" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="111">
+        <v>45748</v>
+      </c>
+      <c r="I2" s="111">
+        <v>45748</v>
+      </c>
+      <c r="J2" s="20">
+        <f t="shared" ref="J2:J51" si="0">I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A3" s="79">
+        <v>7691578</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="112">
+        <v>45748</v>
+      </c>
+      <c r="I3" s="112">
+        <v>45748</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="79">
+        <v>7691387</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="84">
+        <v>45748</v>
+      </c>
+      <c r="I4" s="84">
+        <v>45748</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="87">
+      <c r="A5" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="84">
+        <v>45748</v>
+      </c>
+      <c r="I5" s="84">
+        <v>45748</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="58">
+      <c r="A6" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="84">
+        <v>45748</v>
+      </c>
+      <c r="I6" s="84">
+        <v>45748</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="58">
+      <c r="A7" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>574</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="84">
+        <v>45748</v>
+      </c>
+      <c r="I7" s="84">
+        <v>45748</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="101.5">
+      <c r="A8" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="84">
+        <v>45748</v>
+      </c>
+      <c r="I8" s="84">
+        <v>45748</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A9" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="49">
+        <v>45748</v>
+      </c>
+      <c r="I9" s="49">
+        <v>45748</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="49">
+        <v>45751</v>
+      </c>
+      <c r="I10" s="49">
+        <v>45752</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="49">
+        <v>45754</v>
+      </c>
+      <c r="I11" s="49">
+        <v>45754</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" ht="112.5">
+      <c r="A12" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="84">
+        <v>45750</v>
+      </c>
+      <c r="I12" s="84">
+        <v>45750</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.5">
+      <c r="A13" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="84">
+        <v>45771</v>
+      </c>
+      <c r="I13" s="84">
+        <v>45771</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.5">
+      <c r="A14" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="84">
+        <v>45771</v>
+      </c>
+      <c r="I14" s="84">
+        <v>45771</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29">
+      <c r="A15" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="84">
+        <v>45771</v>
+      </c>
+      <c r="I15" s="84">
+        <v>45771</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="115" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="224.5">
+      <c r="A16" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="84">
+        <v>45764</v>
+      </c>
+      <c r="I16" s="84">
+        <v>45768</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K16" s="116" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="246.5">
+      <c r="A17" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I17" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="115" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="58">
+      <c r="A18" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I18" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="58">
+      <c r="A19" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I19" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="115" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="58">
+      <c r="A20" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I20" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="115" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="87">
+      <c r="A21" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I21" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="58">
+      <c r="A22" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I22" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="115" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="72.5">
+      <c r="A23" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H23" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I23" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="115" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="56.5">
+      <c r="A24" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="84">
+        <v>45762</v>
+      </c>
+      <c r="I24" s="84">
+        <v>45762</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="116" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="98.5">
+      <c r="A25" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="84">
+        <v>45763</v>
+      </c>
+      <c r="I25" s="84">
+        <v>45763</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="116" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="42.5">
+      <c r="A26" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H26" s="84">
+        <v>45768</v>
+      </c>
+      <c r="I26" s="84">
+        <v>45768</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="116" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="98.5">
+      <c r="A27" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="84">
+        <v>45771</v>
+      </c>
+      <c r="I27" s="84">
+        <v>45771</v>
+      </c>
+      <c r="J27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="116" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="42.5">
+      <c r="A28" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H28" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I28" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="116" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="42.5">
+      <c r="A29" s="37">
+        <v>7799679</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E29" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="84">
+        <v>45776</v>
+      </c>
+      <c r="I29" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="116" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="84.5">
+      <c r="A30" s="37">
+        <v>7805827</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="84">
+        <v>45777</v>
+      </c>
+      <c r="I30" s="84">
+        <v>45777</v>
+      </c>
+      <c r="J30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="116" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="84.5">
+      <c r="A31" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" s="98" t="s">
+        <v>492</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>518</v>
+      </c>
+      <c r="F31" t="s">
+        <v>614</v>
+      </c>
+      <c r="G31" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="97">
+        <v>45777</v>
+      </c>
+      <c r="I31" s="97">
+        <v>45777</v>
+      </c>
+      <c r="J31" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="116" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="84.5">
+      <c r="A32" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" s="84">
+        <v>45777</v>
+      </c>
+      <c r="I32" s="84">
+        <v>45777</v>
+      </c>
+      <c r="J32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="83" t="s">
+        <v>615</v>
+      </c>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" ht="28.5">
+      <c r="A33" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F33" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" s="87">
+        <v>45758</v>
+      </c>
+      <c r="I33" s="87">
+        <v>45758</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" ht="28.5">
+      <c r="A34" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="87">
+        <v>45765</v>
+      </c>
+      <c r="I34" s="87">
+        <v>45765</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>616</v>
+      </c>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" ht="28.5">
+      <c r="A35" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E35" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="87">
+        <v>45765</v>
+      </c>
+      <c r="I35" s="87">
+        <v>45765</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="83" t="s">
+        <v>617</v>
+      </c>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" ht="28.5">
+      <c r="A36" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="87">
+        <v>45758</v>
+      </c>
+      <c r="I36" s="87">
+        <v>45758</v>
+      </c>
+      <c r="J36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" ht="28.5">
+      <c r="A37" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E37" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="87">
+        <v>45758</v>
+      </c>
+      <c r="I37" s="87">
+        <v>45758</v>
+      </c>
+      <c r="J37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" ht="56.5">
+      <c r="A38" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E38" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="84">
+        <v>45765</v>
+      </c>
+      <c r="I38" s="84">
+        <v>45765</v>
+      </c>
+      <c r="J38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" s="23"/>
+    </row>
+    <row r="39" spans="1:12" ht="56.5">
+      <c r="A39" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" s="84">
+        <v>45765</v>
+      </c>
+      <c r="I39" s="84">
+        <v>45765</v>
+      </c>
+      <c r="J39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="23"/>
+    </row>
+    <row r="40" spans="1:12" ht="42.5">
+      <c r="A40" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="84">
+        <v>45765</v>
+      </c>
+      <c r="I40" s="84">
+        <v>45765</v>
+      </c>
+      <c r="J40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="23"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.5">
+      <c r="A41" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>492</v>
+      </c>
+      <c r="E41" s="117" t="s">
+        <v>520</v>
+      </c>
+      <c r="F41" s="118" t="s">
+        <v>618</v>
+      </c>
+      <c r="G41" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="97">
+        <v>45769</v>
+      </c>
+      <c r="I41" s="97">
+        <v>45769</v>
+      </c>
+      <c r="J41" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="119" t="s">
+        <v>619</v>
+      </c>
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" spans="1:12" ht="182.5">
+      <c r="A42" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E42" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I42" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="L42" s="58"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E43" s="86" t="s">
+        <v>622</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="84">
+        <v>45751</v>
+      </c>
+      <c r="I43" s="84">
+        <v>45751</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="83"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F44" s="120" t="s">
+        <v>624</v>
+      </c>
+      <c r="G44" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="121">
+        <v>45755</v>
+      </c>
+      <c r="I44" s="122">
+        <v>45756</v>
+      </c>
+      <c r="J44" s="88">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="123"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F45" s="124" t="s">
+        <v>625</v>
+      </c>
+      <c r="G45" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="53">
+        <v>45756</v>
+      </c>
+      <c r="I45" s="53">
+        <v>45757</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="91"/>
+    </row>
+    <row r="46" spans="1:12" ht="29">
+      <c r="A46" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F46" s="125" t="s">
+        <v>626</v>
+      </c>
+      <c r="G46" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" s="53">
+        <v>45771</v>
+      </c>
+      <c r="I46" s="53">
+        <v>45771</v>
+      </c>
+      <c r="J46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="91" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="F47" s="126" t="s">
+        <v>629</v>
+      </c>
+      <c r="G47" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="49">
+        <v>45775</v>
+      </c>
+      <c r="I47" s="53">
+        <v>45776</v>
+      </c>
+      <c r="J47" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K47" s="91"/>
+    </row>
+    <row r="48" spans="1:12" ht="29">
+      <c r="A48" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>578</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="E48" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="G48" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="16">
+        <v>45749</v>
+      </c>
+      <c r="I48" s="16">
+        <v>45749</v>
+      </c>
+      <c r="J48" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="42.5">
+      <c r="A49" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E49" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="16">
+        <v>45749</v>
+      </c>
+      <c r="I49" s="16">
+        <v>45749</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>633</v>
+      </c>
+      <c r="F50" t="s">
+        <v>634</v>
+      </c>
+      <c r="G50" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" s="16">
+        <v>45777</v>
+      </c>
+      <c r="I50" s="16">
+        <v>45777</v>
+      </c>
+      <c r="J50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E51" s="113" t="s">
+        <v>633</v>
+      </c>
+      <c r="F51" t="s">
+        <v>635</v>
+      </c>
+      <c r="G51" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="16">
+        <v>45765</v>
+      </c>
+      <c r="I51" s="16">
+        <v>45765</v>
+      </c>
+      <c r="J51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="37">
+        <v>7691075</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="G52" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H52" s="127">
+        <v>45661.556944444441</v>
+      </c>
+      <c r="I52" s="127">
+        <v>45751.491666666669</v>
+      </c>
+      <c r="J52" s="36">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="29">
+      <c r="A53" s="37">
+        <v>7795913</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>492</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="G53" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I53" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J53" s="36">
+        <v>0</v>
+      </c>
+      <c r="K53" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="29">
+      <c r="A54" s="37">
+        <v>7795914</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>492</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I54" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J54" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K54" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="29">
+      <c r="A55" s="37">
+        <v>7795917</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>492</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I55" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J55" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="29">
+      <c r="A56" s="37">
+        <v>7795930</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>492</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="G56" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I56" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J56" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K56" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="29">
+      <c r="A57" s="37">
+        <v>7795944</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>492</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G57" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I57" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J57" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K57" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="29">
+      <c r="A58" s="37">
+        <v>7795969</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>492</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G58" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I58" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J58" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K58" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="29">
+      <c r="A59" s="37">
+        <v>7795980</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>492</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="G59" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I59" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J59" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K59" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="29">
+      <c r="A60" s="37">
+        <v>7795986</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>492</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G60" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I60" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J60" s="36">
+        <v>0</v>
+      </c>
+      <c r="K60" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="29">
+      <c r="A61" s="37">
+        <v>7795991</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G61" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I61" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J61" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K61" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="29">
+      <c r="A62" s="37">
+        <v>7795992</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" t="s">
+        <v>492</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G62" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I62" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J62" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K62" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="29">
+      <c r="A63" s="37">
+        <v>7795994</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>492</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G63" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I63" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J63" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K63" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="29">
+      <c r="A64" s="37">
+        <v>7795995</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>492</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G64" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I64" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J64" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K64" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="29">
+      <c r="A65" s="37">
+        <v>7795999</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>492</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G65" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H65" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I65" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J65" s="36">
+        <v>0</v>
+      </c>
+      <c r="K65" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="29">
+      <c r="A66" s="37">
+        <v>7796002</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>492</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G66" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I66" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J66" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K66" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="29">
+      <c r="A67" s="37">
+        <v>7796001</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>492</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I67" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J67" s="36">
+        <v>0</v>
+      </c>
+      <c r="K67" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="29">
+      <c r="A68" s="37">
+        <v>7796012</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="G68" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="H68" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I68" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J68" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K68" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="29">
+      <c r="A69" s="37">
+        <v>7796014</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>492</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G69" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I69" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J69" s="36">
+        <v>0</v>
+      </c>
+      <c r="K69" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="29">
+      <c r="A70" s="37">
+        <v>7796013</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>492</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="G70" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I70" s="84">
+        <v>45776</v>
+      </c>
+      <c r="J70" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K70" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="29">
+      <c r="A71" s="37">
+        <v>7796028</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>492</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>641</v>
+      </c>
+      <c r="G71" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="84">
+        <v>45775</v>
+      </c>
+      <c r="I71" s="84">
+        <v>45775</v>
+      </c>
+      <c r="J71" s="36">
+        <v>0</v>
+      </c>
+      <c r="K71" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="37">
+        <v>7807491</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C72" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="36" t="s">
+        <v>642</v>
+      </c>
+      <c r="G72" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H72" s="35">
+        <v>45777</v>
+      </c>
+      <c r="I72" s="35">
+        <v>45778</v>
+      </c>
+      <c r="J72" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="F73" s="71" t="s">
+        <v>644</v>
+      </c>
+      <c r="G73" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H73" s="69">
+        <v>45748</v>
+      </c>
+      <c r="I73" s="69">
+        <v>45748</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0</v>
+      </c>
+      <c r="K73" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="F74" s="71" t="s">
+        <v>645</v>
+      </c>
+      <c r="G74" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="69">
+        <v>45748</v>
+      </c>
+      <c r="I74" s="69">
+        <v>45748</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="E75" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75" s="71" t="s">
+        <v>646</v>
+      </c>
+      <c r="G75" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="69">
+        <v>45754</v>
+      </c>
+      <c r="I75" s="69">
+        <v>45754</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0</v>
+      </c>
+      <c r="K75" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H76" s="49">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="49">
+        <v>45750</v>
+      </c>
+      <c r="I77" s="128">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" t="s">
+        <v>650</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="16">
+        <v>45749</v>
+      </c>
+      <c r="I78" s="128">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="29">
+      <c r="A79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="16">
+        <v>45770</v>
+      </c>
+      <c r="I79" s="128">
+        <v>45770</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.5">
+      <c r="A80" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F80" s="129" t="s">
+        <v>652</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" s="13">
+        <v>45774</v>
+      </c>
+      <c r="I80" s="13">
+        <v>45774</v>
+      </c>
+      <c r="J80" s="12"/>
+      <c r="K80" s="18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H81" s="13">
+        <v>45749</v>
+      </c>
+      <c r="I81" s="13">
+        <v>45749</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" ref="J81:J89" si="1">I81-H81</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" s="13">
+        <v>45750</v>
+      </c>
+      <c r="I82" s="13">
+        <v>45750</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" s="13">
+        <v>45754</v>
+      </c>
+      <c r="I83" s="13">
+        <v>45754</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" ht="159.5">
+      <c r="A84" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" s="13">
+        <v>45755</v>
+      </c>
+      <c r="I84" s="13">
+        <v>45755</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="62" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" s="13">
+        <v>45755</v>
+      </c>
+      <c r="I85" s="13">
+        <v>45755</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H86" s="13">
+        <v>45779</v>
+      </c>
+      <c r="I86" s="13">
+        <v>45779</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" s="13">
+        <v>45792</v>
+      </c>
+      <c r="I87" s="13">
+        <v>45792</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H88" s="13">
+        <v>45812</v>
+      </c>
+      <c r="I88" s="13">
+        <v>45812</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H89" s="13">
+        <v>45807</v>
+      </c>
+      <c r="I89" s="13">
+        <v>45817</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="11"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="11"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="11"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="11"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="11"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="11"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="11"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="11"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="11"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="11"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="11"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="11"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="11"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="11"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="11"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="11"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H119" s="13">
+        <v>45748</v>
+      </c>
+      <c r="I119" s="13">
+        <v>45748</v>
+      </c>
+      <c r="J119" s="14">
+        <f t="shared" ref="J119:J151" si="2">I119-H119</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="11"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F120" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" s="13">
+        <v>45749</v>
+      </c>
+      <c r="I120" s="13">
+        <v>45752</v>
+      </c>
+      <c r="J120" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" s="13">
+        <v>45750</v>
+      </c>
+      <c r="I121" s="13">
+        <v>45753</v>
+      </c>
+      <c r="J121" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H122" s="13">
+        <v>45765</v>
+      </c>
+      <c r="I122" s="13">
+        <v>45765</v>
+      </c>
+      <c r="J122" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H123" s="13">
+        <v>45776</v>
+      </c>
+      <c r="I123" s="13">
+        <v>45777</v>
+      </c>
+      <c r="J123" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H124" s="13">
+        <v>45776</v>
+      </c>
+      <c r="I124" s="13">
+        <v>45777</v>
+      </c>
+      <c r="J124" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H125" s="13">
+        <v>45776</v>
+      </c>
+      <c r="I125" s="13">
+        <v>45776</v>
+      </c>
+      <c r="J125" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F126" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H126" s="13">
+        <v>45776</v>
+      </c>
+      <c r="I126" s="13">
+        <v>45776</v>
+      </c>
+      <c r="J126" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H127" s="13">
+        <v>45777</v>
+      </c>
+      <c r="I127" s="13">
+        <v>45778</v>
+      </c>
+      <c r="J127" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H128" s="13">
+        <v>45777</v>
+      </c>
+      <c r="I128" s="13">
+        <v>45782</v>
+      </c>
+      <c r="J128" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K128" s="67" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H129" s="13">
+        <v>45777</v>
+      </c>
+      <c r="I129" s="13">
+        <v>45779</v>
+      </c>
+      <c r="J129" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K129" s="67" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H130" s="13">
+        <v>45777</v>
+      </c>
+      <c r="I130" s="13">
+        <v>45781</v>
+      </c>
+      <c r="J130" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K130" s="67" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F131" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H131" s="13">
+        <v>45778</v>
+      </c>
+      <c r="I131" s="13">
+        <v>45780</v>
+      </c>
+      <c r="J131" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F132" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H132" s="13">
+        <v>45778</v>
+      </c>
+      <c r="I132" s="13">
+        <v>45778</v>
+      </c>
+      <c r="J132" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F133" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="13">
+        <v>45778</v>
+      </c>
+      <c r="I133" s="13">
+        <v>45782</v>
+      </c>
+      <c r="J133" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="116">
+      <c r="A134" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H134" s="13">
+        <v>45777</v>
+      </c>
+      <c r="I134" s="13">
+        <v>45782</v>
+      </c>
+      <c r="J134" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K134" s="62" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H135" s="13">
+        <v>45792</v>
+      </c>
+      <c r="I135" s="13">
+        <v>45797</v>
+      </c>
+      <c r="J135" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H136" s="13">
+        <v>45792</v>
+      </c>
+      <c r="I136" s="13">
+        <v>45794</v>
+      </c>
+      <c r="J136" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F137" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H137" s="13">
+        <v>45792</v>
+      </c>
+      <c r="I137" s="13">
+        <v>45792</v>
+      </c>
+      <c r="J137" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="11"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H138" s="13">
+        <v>45796</v>
+      </c>
+      <c r="I138" s="13">
+        <v>45796</v>
+      </c>
+      <c r="J138" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F139" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H139" s="13">
+        <v>45803</v>
+      </c>
+      <c r="I139" s="13">
+        <v>45803</v>
+      </c>
+      <c r="J139" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="11"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H140" s="13">
+        <v>45758</v>
+      </c>
+      <c r="I140" s="13">
+        <v>45758</v>
+      </c>
+      <c r="J140" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="11"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H141" s="13">
+        <v>45758</v>
+      </c>
+      <c r="I141" s="13">
+        <v>45758</v>
+      </c>
+      <c r="J141" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="11"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H142" s="13">
+        <v>45758</v>
+      </c>
+      <c r="I142" s="13">
+        <v>45758</v>
+      </c>
+      <c r="J142" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="11"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H143" s="13">
+        <v>45758</v>
+      </c>
+      <c r="I143" s="13">
+        <v>45758</v>
+      </c>
+      <c r="J143" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="11"/>
+    </row>
+    <row r="144" spans="1:11" ht="290">
+      <c r="A144" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H144" s="13">
+        <v>45758</v>
+      </c>
+      <c r="I144" s="13">
+        <v>45770</v>
+      </c>
+      <c r="J144" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K144" s="62" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H145" s="13">
+        <v>45806</v>
+      </c>
+      <c r="I145" s="13">
+        <v>45806</v>
+      </c>
+      <c r="J145" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H146" s="13">
+        <v>45770</v>
+      </c>
+      <c r="I146" s="13">
+        <v>45770</v>
+      </c>
+      <c r="J146" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="11"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H147" s="13">
+        <v>45806</v>
+      </c>
+      <c r="I147" s="13">
+        <v>45806</v>
+      </c>
+      <c r="J147" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="11"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H148" s="13">
+        <v>45806</v>
+      </c>
+      <c r="I148" s="13">
+        <v>45806</v>
+      </c>
+      <c r="J148" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="11"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H149" s="13">
+        <v>45806</v>
+      </c>
+      <c r="I149" s="13">
+        <v>45806</v>
+      </c>
+      <c r="J149" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="11"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H150" s="13">
+        <v>45806</v>
+      </c>
+      <c r="I150" s="13">
+        <v>45806</v>
+      </c>
+      <c r="J150" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H151" s="13">
+        <v>45776</v>
+      </c>
+      <c r="I151" s="13">
+        <v>45776</v>
+      </c>
+      <c r="J151" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L89" xr:uid="{530721CC-F975-4AF0-ACF9-BF373E559216}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{668E3DCD-6AC8-4520-8299-02AFACD53174}">
+          <x14:formula1>
+            <xm:f>'[ABP_FY''26 Issues v2 (1).xlsx]List'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G43 G45:G76 G80 G82:G87 G144:G147 G151 G119:G139</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7269DFF-B7D2-4B33-BCD7-0AFCA9D61CEB}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="131" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45.75" customHeight="1">
+      <c r="A2" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H2" s="84">
+        <v>45779</v>
+      </c>
+      <c r="I2" s="84">
+        <v>45779</v>
+      </c>
+      <c r="J2" s="68">
+        <f t="shared" ref="J2:J20" si="0">I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="115" t="s">
+        <v>708</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="126.5">
+      <c r="A3" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>568</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="84">
+        <v>45782</v>
+      </c>
+      <c r="I3" s="84">
+        <v>45782</v>
+      </c>
+      <c r="J3" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="116" t="s">
+        <v>710</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="29">
+      <c r="A4" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>711</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I4" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J4" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="42.5">
+      <c r="A5" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I5" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J5" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="29">
+      <c r="A6" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>713</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I6" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J6" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="116" t="s">
+        <v>714</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="56.5">
+      <c r="A7" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F7" s="116" t="s">
+        <v>715</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I7" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J7" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="116" t="s">
+        <v>716</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="84.5">
+      <c r="A8" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="116" t="s">
+        <v>717</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I8" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J8" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="116" t="s">
+        <v>718</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="84.5">
+      <c r="A9" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>719</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="H9" s="84">
+        <v>45785</v>
+      </c>
+      <c r="I9" s="84">
+        <v>45785</v>
+      </c>
+      <c r="J9" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>718</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="182.5">
+      <c r="A10" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10" s="116" t="s">
+        <v>720</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="84">
+        <v>45789</v>
+      </c>
+      <c r="I10" s="84">
+        <v>45789</v>
+      </c>
+      <c r="J10" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="133" t="s">
+        <v>721</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="29">
+      <c r="A11" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>722</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H11" s="84">
+        <v>45789</v>
+      </c>
+      <c r="I11" s="84">
+        <v>45789</v>
+      </c>
+      <c r="J11" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="116" t="s">
+        <v>723</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="42.5">
+      <c r="A12" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>724</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="84">
+        <v>45789</v>
+      </c>
+      <c r="I12" s="84">
+        <v>45789</v>
+      </c>
+      <c r="J12" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="116" t="s">
+        <v>725</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="42.5">
+      <c r="A13" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="84">
+        <v>45789</v>
+      </c>
+      <c r="I13" s="84">
+        <v>45789</v>
+      </c>
+      <c r="J13" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="42">
+      <c r="A14" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>518</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="84">
+        <v>45797</v>
+      </c>
+      <c r="I14" s="84">
+        <v>45797</v>
+      </c>
+      <c r="J14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="91"/>
+    </row>
+    <row r="15" spans="1:12" ht="56.5">
+      <c r="A15" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="84">
+        <v>45797</v>
+      </c>
+      <c r="I15" s="84">
+        <v>45797</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="116" t="s">
+        <v>727</v>
+      </c>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12" ht="56.5">
+      <c r="A16" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="84">
+        <v>45797</v>
+      </c>
+      <c r="I16" s="84">
+        <v>45797</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="116" t="s">
+        <v>729</v>
+      </c>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" ht="56.5">
+      <c r="A17" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>730</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="84">
+        <v>45797</v>
+      </c>
+      <c r="I17" s="84">
+        <v>45797</v>
+      </c>
+      <c r="J17" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="116" t="s">
+        <v>731</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="56.5">
+      <c r="A18" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F18" s="116" t="s">
+        <v>732</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="84">
+        <v>45803</v>
+      </c>
+      <c r="I18" s="84">
+        <v>45803</v>
+      </c>
+      <c r="J18" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="116" t="s">
+        <v>727</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="56.5">
+      <c r="A19" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="84">
+        <v>45804</v>
+      </c>
+      <c r="I19" s="84">
+        <v>45804</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="116" t="s">
+        <v>733</v>
+      </c>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="1:12" ht="28">
+      <c r="A20" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E20" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="49">
+        <v>45798</v>
+      </c>
+      <c r="I20" s="49">
+        <v>45798</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="42.5">
+      <c r="A21" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>736</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="49">
+        <v>45797</v>
+      </c>
+      <c r="I21" s="49">
+        <v>45798</v>
+      </c>
+      <c r="J21" s="134">
+        <f>I21-H21</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="91"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="49">
+        <v>45785</v>
+      </c>
+      <c r="I22" s="53">
+        <v>45790</v>
+      </c>
+      <c r="J22" s="134">
+        <f>I22-H22</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="91"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="37">
+        <v>7829627</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" s="49">
+        <v>45793</v>
+      </c>
+      <c r="I23" s="53">
+        <v>45793</v>
+      </c>
+      <c r="J23" s="126">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K23" s="91"/>
+    </row>
+    <row r="24" spans="1:12" ht="29">
+      <c r="A24" s="37">
+        <v>7796028</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="49">
+        <v>45801</v>
+      </c>
+      <c r="I24" s="49">
+        <v>45801</v>
+      </c>
+      <c r="J24" s="126">
+        <v>0</v>
+      </c>
+      <c r="K24" s="68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="49">
+        <v>45800</v>
+      </c>
+      <c r="I25" s="53">
+        <v>45801</v>
+      </c>
+      <c r="J25" s="126">
+        <v>1</v>
+      </c>
+      <c r="K25" s="91" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="26">
+        <v>7886601</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="H26" s="78">
+        <v>45799</v>
+      </c>
+      <c r="I26" s="135">
+        <v>45800</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="H27" s="78">
+        <v>45799</v>
+      </c>
+      <c r="I27" s="135">
+        <v>45800</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="91"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="13">
+        <v>45813</v>
+      </c>
+      <c r="I28" s="13">
+        <v>45813</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="13">
+        <v>45805</v>
+      </c>
+      <c r="I29" s="13">
+        <v>45807</v>
+      </c>
+      <c r="J29" s="14">
+        <f>I29-H29</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="136" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="91"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="91"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="91"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="91"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="H34" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L29" xr:uid="{F3D777A3-1791-4517-90D9-1A985A9582FB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3BCBD85-FAE3-463A-B981-C3244BF3A6F7}">
+          <x14:formula1>
+            <xm:f>'[ABP_FY''26 Issues v2 (1).xlsx]List'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293CBDEC-49A5-4226-9C73-BA088B48D509}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J1" s="131" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="132" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45811</v>
+      </c>
+      <c r="I2" s="13">
+        <v>45811</v>
+      </c>
+      <c r="J2" s="14">
+        <f>I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45810</v>
+      </c>
+      <c r="I3" s="13">
+        <v>45810</v>
+      </c>
+      <c r="J3" s="14">
+        <f>I3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29">
+      <c r="A4">
+        <v>7960667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F4" s="137" t="s">
+        <v>755</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="138">
+        <v>45818</v>
+      </c>
+      <c r="I4" s="138">
+        <v>45827</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J10" si="0">I4-H4</f>
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="72.5">
+      <c r="A5">
+        <v>7979684</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>757</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="138">
+        <v>45824</v>
+      </c>
+      <c r="I5" s="138">
+        <v>45827</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29">
+      <c r="A6">
+        <v>7981999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>759</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="138">
+        <v>45824</v>
+      </c>
+      <c r="I6" s="138">
+        <v>45828</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="130.5">
+      <c r="A7" s="6">
+        <v>7993057</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>761</v>
+      </c>
+      <c r="G7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="138">
+        <v>45827</v>
+      </c>
+      <c r="I7" s="138">
+        <v>45828</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>754</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="138">
+        <v>45824</v>
+      </c>
+      <c r="I8" s="128">
+        <v>45825</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="139">
+        <v>7997897</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" t="s">
+        <v>765</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="128">
+        <v>45828</v>
+      </c>
+      <c r="I9" s="128"/>
+      <c r="J9" s="14">
+        <f t="shared" si="0"/>
+        <v>-45828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>7997293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>766</v>
+      </c>
+      <c r="E10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" t="s">
+        <v>767</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="128">
+        <v>45828</v>
+      </c>
+      <c r="I10" s="128">
+        <v>45828</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C11" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" t="s">
+        <v>770</v>
+      </c>
+      <c r="F11" t="s">
+        <v>771</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="128">
+        <v>45825</v>
+      </c>
+      <c r="I11" s="128"/>
+      <c r="K11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="7997897" xr:uid="{B815E92C-6793-4C3F-B59E-80A1031332F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F1714B7-C98A-44D5-8511-B71A2008BB03}">
+          <x14:formula1>
+            <xm:f>'[ABP_FY''26 Issues v2 (1).xlsx]List'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G6 G8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/issue category.xlsx
+++ b/data/issue category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daljeet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6030B9-68C9-4B0C-A002-5122D34B15A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE174AE-92D2-4DB9-AAC8-923C65820EC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{71196FBF-F77C-4191-BBFC-56D8905A1F1C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jan 25'!$A$1:$K$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mar 25'!$A$1:$K$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'May 25'!$A$1:$L$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="731">
   <si>
     <t>New CC update for Depreciation, integration movement</t>
   </si>
@@ -2244,379 +2244,169 @@
     <t>User to respond with gap analysis and action</t>
   </si>
   <si>
-    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-</t>
-  </si>
-  <si>
-    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-</t>
-  </si>
-  <si>
-    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-</t>
-  </si>
-  <si>
-    <t>Helping in version movement for all tracks-</t>
-  </si>
-  <si>
-    <t>Helping in reconciling integration data pushed by other tracks like depreciation, IT chargeback, GWTM-</t>
-  </si>
-  <si>
-    <t>Helping users to use features of drill down , pivot etc to take download of the file from system as per requirement-</t>
-  </si>
-  <si>
-    <t>Helping users to upload GAGW plan data for all tracks-</t>
-  </si>
-  <si>
-    <t>Helping users to upload GAGW monthly allocation percentage for monthly plan data-</t>
-  </si>
-  <si>
-    <t>Helping users to upload calendar, central assumptions-</t>
-  </si>
-  <si>
-    <t>Helping users to upload bulk/strategic procurement rates-</t>
-  </si>
-  <si>
-    <t>Helping users by showing them how to refer FY25 for their references-</t>
-  </si>
-  <si>
-    <t>Own clean coal and output not visible -Wrong dashboard was being referred</t>
-  </si>
-  <si>
-    <t>OMQ Cost sheets look distorted making it difficult to check nos -User referring wrong dashboard link</t>
-  </si>
-  <si>
-    <t>For Vijaya II, Royalty per tonne ( Royalty, DMF, NMET) etc are not appearing even though we have entered Royalty rates in Assumption sheet.-User entered in wrong sheet</t>
-  </si>
-  <si>
-    <t>HSD Rates was not flowing  -User has to push the consumption then rates flow from other cost</t>
-  </si>
-  <si>
-    <t>Despatch nos are distorted( highly inflated)  in OMQ FG Mat Bal -User changed the number as seen in history</t>
-  </si>
-  <si>
-    <t>Jharia BCCL Volumes is showing different nos in different places -Missing mapping by user</t>
-  </si>
-  <si>
-    <t>Opening stock in QSE but are still unable to view the inventory for the same -User missed updating input</t>
-  </si>
-  <si>
-    <t>Incorrect NR in OMQ POP-</t>
-  </si>
-  <si>
-    <t>Add Kalamang CLO in Kalamang FG Costing sheet and also cost without royalty as both these elements are not being visible-</t>
-  </si>
-  <si>
-    <t>In OMQ Cost Planning, Kalamang Change in WIP is appearing incorrect as it is showing closing stock whereas in actual there is no closing stock as per system-</t>
-  </si>
-  <si>
-    <t>The changes in Noamundi IOPP ROM is not visible in Royalty Planning sheet-</t>
-  </si>
-  <si>
-    <t>Kalamang CLO Despatches is not appearing in Royalty Planning Sheet-</t>
-  </si>
-  <si>
-    <t>HMC prod cannot be viewed in report 7.1. Request you to help.-Grid to see HMC Production was already published, user was looking in different grid</t>
-  </si>
-  <si>
-    <t>Moisture Content was not flowing to Coke Plants.-</t>
-  </si>
-  <si>
-    <t>Imported coal cost is not flowing from Other Cost-Other cost to run outbound action to push the rates</t>
-  </si>
-  <si>
-    <t>Coke Breeze cost is not reflected in pellet cost sheet-Gross Coke’s Mappings were missing to split Coke Breeze</t>
-  </si>
-  <si>
-    <t>Wages is not shown in HMC cost sheet- Inbound Action was not run to pull the wages data</t>
-  </si>
-  <si>
-    <t>IT chargeback is not flowing in cost sheet-Allocation% not updated and new GLs were required to be pulled</t>
-  </si>
-  <si>
-    <t>EPA Pellet not flowing to cost sheet-Since rate is coming through central assumption so we had to select cost head's drivers accordingly</t>
-  </si>
-  <si>
-    <t>Extruded Briquette’s Consumption Cost(Rs/T) was not flowing to BF’s Cost Sheet-Aggregation Mapping was missing and refresh rate’s action was not ran</t>
-  </si>
-  <si>
-    <t>RMHS cost not flowing correctly-Incorrect allocation % updated in Anaplan - different % used in manual planning</t>
-  </si>
-  <si>
-    <t>Coal &amp; IO ka despatch qty is not flowing to IM from RM-RM didnt pushed the qty to integration</t>
-  </si>
-  <si>
-    <t>Compensation Cess - Wet Coal (Rs/T) is not flowing to Cost Sheet-User to update the data in cell published</t>
-  </si>
-  <si>
-    <t>BRPL &amp; Purchase pellet rate not showing Anaplan cost sheet-Driver set up not completed in Anaplan by user</t>
-  </si>
-  <si>
-    <t>Rates are not coming in Kalamang IO in ABP FY 26-RM user had planned the data in different material and IM user had planned data in different material</t>
-  </si>
-  <si>
-    <t>Depreciation issue - Anaplan ABP FY'26-Refresh rate's action wasnt run by user</t>
-  </si>
-  <si>
-    <t>RMHS data is not reflecting -Refresh rate's action wasnt run by user</t>
-  </si>
-  <si>
-    <t>Specific consumption and qty is not flowing to cost report-Page was not refreshed properly(user awareness).</t>
-  </si>
-  <si>
-    <t>Shares service data is showing in Integrated version but not showing in working &amp; submission version-Version Setup was not setup properly(user awareness)</t>
-  </si>
-  <si>
-    <t>Coal Quantity mismatch in Anaplan-RM user has planned and sent the data in wrong CC</t>
-  </si>
-  <si>
-    <t>IO lumps Specific consumption MatBal issue-Plant to Plant transfer's data was not entered by user.</t>
-  </si>
-  <si>
-    <t>Data not flowing correctly from IBMD to IM -Data updated in incorrect cost centre by IBMD- later corrected</t>
-  </si>
-  <si>
-    <t>Data mismatch in working and submission and integrated version-Inbound action not run for working and submission for inputs from integration</t>
-  </si>
-  <si>
-    <t>Helping user in updating R&amp;M cost-User wasn’t able to complete</t>
-  </si>
-  <si>
-    <t>Workshops conducted with users to complete ABP inputs and close Geo PL-User wasn’t able to complete</t>
-  </si>
-  <si>
-    <t>New scheme addition in depreciation-Correction done - format for updating new schemes was different</t>
-  </si>
-  <si>
-    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-Users to update requirements and push to OC post which they can push the rates</t>
-  </si>
-  <si>
-    <t>Scrap materials and scrap rate not visible in anaplan-Materials were not marked in SM subset</t>
-  </si>
-  <si>
-    <t>Rate of few ferro alloys missing in anaplan-New items which needs to be updated in SM module which were not consumed last year</t>
-  </si>
-  <si>
-    <t>Addition of Vijay2 LG fines in IM iron and coal distribution module-Materials were not marked in SM subset</t>
-  </si>
-  <si>
-    <t>DET Sales for LP area is reflecting ~144kt in Inbound  Data In integration model (9B), however, in TMT Mat balance sales is showing as ~129kt -Mapping of one product Smart fab missing as not flowing in subset</t>
-  </si>
-  <si>
-    <t>GAGW nos not flowing correctly-Missing cost centres/ GLs added</t>
-  </si>
-  <si>
-    <t>GAGW nos not flowing correctly-Existing hierarchies changed - impact of the same was not flowing as both old and new were appearing</t>
-  </si>
-  <si>
-    <t>GAGW nos not flowing correctly-New GLs not marked in subset for flowing data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lump &amp; dolo lime rates are not flowing to SM Cost sheet-Correction done </t>
-  </si>
-  <si>
-    <t>Mismatch in Tubes numbers pushed to Financial planning model-Depreciation subset not marked</t>
-  </si>
-  <si>
-    <t>Omq Vol Planning, yeild % and excavation-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Additional Amt issue in Joda and Vijiya II-Clo was not mapped last year</t>
-  </si>
-  <si>
-    <t>Coal rate and fuel rate is showing wrong in report no. 7.3-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Depreciation mismatch in FP and BP-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>BF coke mapping not done correctly leading to gap in Geo PL-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Residual TSG fines not flowing-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Requirement of powder bentonite, ASRF etc not mapped propoerly-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Mismatches in depreciation.-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Addtion of Coke breeze imported under  Pellet plant-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Depreciation mismatch in FP and BP-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Carboloux new material mapping-Mapping not done correctly</t>
-  </si>
-  <si>
-    <t>Abnormal cost and POP difference -DSS and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Iron ore distribution data mismatch due to different excel versions-DSS and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Difference in assumption updated for lime -Different data used in planning by CS&amp;P and BAG SM</t>
-  </si>
-  <si>
-    <t>Rate of scrap is not reflecting correctly in Anaplan ; difference in freight also-IBMD and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Transfer of FHCR from TSK and TSM is not aligned with TSJ is Anaplan-TSJ nad TSK have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Difference in CMG wages, LD gas rate, BF gas rate, power , argon, mixed gas, MP nitrogen -Shared services had computed the manual data and shared based on std cost .However working the bottom -up , it was found that there were items not considered in the calculation earlier</t>
-  </si>
-  <si>
-    <t>Rate of ferro alloys is not reflecting correctly in Anaplan (dolomite, desulphur, nitrovan, aluminium notch bar, maganesium metal flake etc.)-Bulk/Strategic procurement and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>SPC and freight cost difference -Different data used in planning by SC and BAG SM</t>
-  </si>
-  <si>
-    <t>Difference in monthwise planning of TSJ common GA cost due to different logics considered by CMAG and BAG SM for allocation -Different logics due to which different nos</t>
-  </si>
-  <si>
-    <t>Change in rate of TSK and freight in inventory-Different data used in planning by TSK and BAG SM</t>
-  </si>
-  <si>
-    <t>Rate of ferro alloys is not reflecting correctly in Anaplan (dolomite, desulphur, artificial. graphite)-Bulk/Strategic procurement and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Rate of scrap is not reflecting correctly in Anaplan -IBMD and BAG SM have considered different nos for planning</t>
-  </si>
-  <si>
-    <t>Incorrect moisture content is flowing in system-CS&amp;P releases moisture content for all locations separately. User team considered different data</t>
-  </si>
-  <si>
-    <t>Vijaya II Change in WIP is not appearing correctly on account of wrong production rate.-Logic changed during ABP</t>
-  </si>
-  <si>
-    <t>Purchase Pellet's impact in Pellet Plant-There is a exclusion logic change to remove the impact</t>
-  </si>
-  <si>
-    <t>Formula changed for saleable FHCR, FHCR inventory in CRM volume  planning,  HR input of CRM Bara, weighted average calculation of CRM bara inventory-Changes done during ABP planning</t>
-  </si>
-  <si>
-    <t>Flaring of BF,CO &amp; LD in GCal  -Changes done during ABP planning</t>
-  </si>
-  <si>
-    <t>Allocation of cost over MOR in different areas-New areas added and new reports required with different views</t>
-  </si>
-  <si>
-    <t>Billet consumption cost not coming correct-Formula changed during ABP even after doing UAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Consumption in pellet plant-Formula changed during ABP </t>
-  </si>
-  <si>
-    <t>Rate incorrectly flowing for Coke Breeze-Formula changed during ABP to include exception for sinter coke breeze</t>
-  </si>
-  <si>
-    <t>Many new logics incorporated during ABP-Inclusion of Joda</t>
-  </si>
-  <si>
-    <t>Logic for transfers, coke breeze changed-</t>
-  </si>
-  <si>
-    <t>Weighted average inventory rate for transferring to TSM  - Difference in rates-Production cost considered in planning while weighted average rate build in Anaplan</t>
-  </si>
-  <si>
-    <t>GAGW data not matching in Anaplan w.r.t manual planning-Different logics for viewing the GAGW cost in Anaplan and excel</t>
-  </si>
-  <si>
-    <t>Difference in GAGW cost-Due to LP mapping of CC in anaplan, cost for 21120 was mismatching. Later aligned</t>
-  </si>
-  <si>
-    <t>Milwise LP data of sales was reuired which was not planned. Later M&amp;S made the data-Difference in manual and system planning</t>
-  </si>
-  <si>
-    <t>Ferroshot rate logic is weighted average of scraps in anaplan while there is no such planning done-Difference in manual and system planning</t>
-  </si>
-  <si>
-    <t>Utility data not available in Blast Furnace-There was a filter applied in view due to which grid was coming blank</t>
-  </si>
-  <si>
-    <t>ABP'26_Iron Ore and Coal Distribution is not flowing in IM-Access issue at organization level in Integration Model which is resolved</t>
-  </si>
-  <si>
-    <t>GW TSK data was not getting pulled-Authorization issue in the data import action</t>
-  </si>
-  <si>
-    <t>Unable to pull HM /IO-Access issue at organization level in Integration Model which is resolved</t>
-  </si>
-  <si>
-    <t>Total not tallying with the allocated cost in TSJ WCDC module-Correction done in formula</t>
-  </si>
-  <si>
-    <t>Unable to view JMBL Cess in any of the OMQ Cost sheets( Noamundi, Vijaya II and OMQ Total Cost sheet.-Dashboard not published in front end for users to view</t>
-  </si>
-  <si>
-    <t>-Mapping done twice by IT mistakenly</t>
-  </si>
-  <si>
-    <t>Mismatch in Working and Integrated version-Actions corrected</t>
-  </si>
-  <si>
-    <t>Coke Plant Prodn and Coke Consumption Rate cannot be seen in cons. Rate mat bal screen, but it correctly seen in other screen-Different line item was published in the FY'26 Dashboard's grid due to which correct data was not appearing.</t>
-  </si>
-  <si>
-    <t>HMC coke cost not getting pushed to TSK and TSM-Action issues corrected by IT</t>
-  </si>
-  <si>
-    <t>SPC and Purchase Billet data is not reflecting in integrated version-Action corrected</t>
-  </si>
-  <si>
-    <t>Unable to pull data from Inbound Action in Anaplan-Action corrected</t>
-  </si>
-  <si>
-    <t>Unable to move from working submission to integrated version-Action corrected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab inventory report slab cons is not appearing-Correction done </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version movement issue from working -submission to integrated version-Correction done </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After mapping pig iron own, the data is not flowing in BOF-Correction done </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lime fines closing rate diff in WS and integration-Correction done </t>
-  </si>
-  <si>
-    <t>Depreciation not flowing-Action corrected</t>
-  </si>
-  <si>
-    <t>Differences in rates and WPP after transferring data from local to integrated version-Action corrected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase power cost (rate) in WPP for power rate not flowing-Correction done </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The generation nos for By Product Gases are not appearing in Cost Sheet-Correction done </t>
-  </si>
-  <si>
-    <t>Time filter not updated for ABP FY'26-Correction done - format for updating new schemes was different</t>
-  </si>
-  <si>
-    <t>Integration data was not flowing for many tracks like TCIL, IBMD, etc-Correction done - format for updating new schemes was different</t>
-  </si>
-  <si>
-    <t>Bearings export sales volume planning data not reflecting correct. Huge value appearing as ABP FY'25 Data also showing in summary for bearings-</t>
-  </si>
-  <si>
-    <t>Steel cost addition in list of new products added in master -Was done manually - action not working</t>
-  </si>
-  <si>
-    <t>TM cost was not flowing-Due to new changes in OC, mapping was redone</t>
-  </si>
-  <si>
-    <t>Difference in local and integrated version-Action corrected</t>
-  </si>
-  <si>
-    <t>The consumption and transfer figures for RM grade WR3M for MIG wire sales are not appearing in module 2.03 RM planning volume and Cost-Master updated and links corrected</t>
-  </si>
-  <si>
-    <t>TM Allocation in ABP FY26 is still visible -linkages corrected</t>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-IM TSJ</t>
+  </si>
+  <si>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-SM TSJ FP</t>
+  </si>
+  <si>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-SM TSJ LP</t>
+  </si>
+  <si>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-SS TSJ</t>
+  </si>
+  <si>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-SM TSM DS</t>
+  </si>
+  <si>
+    <t>Helping users to update data like production numbers, SPC, Stock for mat bal and inventory, depreciation allocation, IT chargeback allocation, abnormal cost, freight, Wages, KPI requirements, rates, transfer quantities and rates-TSG</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-IM TSJ</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-SM TSJ FP</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-SM TSJ LP</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-SS TSJ</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-SM TSM DS</t>
+  </si>
+  <si>
+    <t>Helping in running inbound/outbound integration actions to push/pull the data in the system from/to other tracks-TSG</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-IM TSJ</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-SM TSJ FP</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-SM TSJ LP</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-SS TSJ</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-SM TSM DS</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-TSG</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-Tubes</t>
+  </si>
+  <si>
+    <t>Helping in updating driver set up for new additions of CC or CH or materials and add in cost sheets, inventory , Geo PL-Bearings</t>
+  </si>
+  <si>
+    <t>Helping in version movement for all tracks-Mostly All tracks</t>
+  </si>
+  <si>
+    <t>Helping in reconciling integration data pushed by other tracks like depreciation, IT chargeback, GWTM-OC</t>
+  </si>
+  <si>
+    <t>Helping users to use features of drill down , pivot etc to take download of the file from system as per requirement-Mostly All tracks</t>
+  </si>
+  <si>
+    <t>Helping users to upload GAGW plan data for all tracks-Mostly All tracks</t>
+  </si>
+  <si>
+    <t>Helping users to upload GAGW monthly allocation percentage for monthly plan data-Mostly All tracks</t>
+  </si>
+  <si>
+    <t>Helping users to upload calendar, central assumptions-CS&amp;P</t>
+  </si>
+  <si>
+    <t>Helping users to upload bulk/strategic procurement rates-Bulk/Strategic</t>
+  </si>
+  <si>
+    <t>Helping users by showing them how to refer FY25 for their references-SM TSJ</t>
+  </si>
+  <si>
+    <t>Own clean coal and output not visible in the user dashboard</t>
+  </si>
+  <si>
+    <t>OMQ Cost sheets looking distorted with absurd numbers</t>
+  </si>
+  <si>
+    <t>Workshops conducted with users to complete ABP inputs and close Geo PL -IBMD</t>
+  </si>
+  <si>
+    <t>Workshops conducted with users to complete ABP inputs and close Geo PL -TSMD</t>
+  </si>
+  <si>
+    <t>Workshops conducted with users to complete ABP inputs and close Geo PL - FAMD</t>
+  </si>
+  <si>
+    <t>New scheme addition in depreciation - Format not clear</t>
+  </si>
+  <si>
+    <t>New scheme addition in depreciation - Time taken to add master</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-IM TSJ</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-SM TSJ LP</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-SM TSJ FP</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-IM TSK</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-SM TSK</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-IM TSM</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc...-SM TSM US</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-IM TSJ User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-SM TSJ LP User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-SM TSJ FP User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-IM TSK User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-SM TSK User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-IM TSM User</t>
+  </si>
+  <si>
+    <t>Bulk Rate are not flowing for materials - Limestone  CP, Pyroxinite, ESP Dust etc…not given earlier-SM TSM US User</t>
+  </si>
+  <si>
+    <t>Scrap materials and scrap rate not visible in anaplan - not given</t>
+  </si>
+  <si>
+    <t>Rate of few ferro alloys missing in anaplan - not given</t>
+  </si>
+  <si>
+    <t>GAGW nos not flowing correctly - CC not given</t>
+  </si>
+  <si>
+    <t>Helping users by showing them how to refer FY25 for their references-IM/SM TSJ</t>
+  </si>
+  <si>
+    <t>GAGW nos not flowing correctly - CCs missed SM</t>
+  </si>
+  <si>
+    <t>GAGW nos not flowing correctly - CCs missed</t>
   </si>
 </sst>
 </file>
@@ -3640,1494 +3430,2464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863CA7DE-9F13-4172-9583-7B15DBC287F3}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="34.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="106.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5">
+    <row r="1" spans="1:2" ht="14.5">
       <c r="A1" s="46" t="s">
         <v>283</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36.65" customHeight="1">
+    </row>
+    <row r="2" spans="1:2" ht="36.65" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.65" customHeight="1">
+    <row r="3" spans="1:2" ht="15.65" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.65" customHeight="1">
+    <row r="4" spans="1:2" ht="15.65" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2" ht="50">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1">
+    <row r="6" spans="1:2" ht="14.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.15" customHeight="1">
+    <row r="7" spans="1:2" ht="14.15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2" ht="25">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25">
+    <row r="9" spans="1:2" ht="25">
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2" ht="25">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2" ht="25">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2" ht="25">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5">
+    <row r="13" spans="1:2" ht="26">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26">
+    <row r="14" spans="1:2" ht="26">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="38.5">
+    <row r="15" spans="1:2" ht="26">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26">
+    <row r="16" spans="1:2" ht="26">
       <c r="A16" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26">
+    <row r="17" spans="1:2" ht="26">
       <c r="A17" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26">
+    <row r="18" spans="1:2" ht="26">
       <c r="A18" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26">
+    <row r="19" spans="1:2" ht="26">
       <c r="A19" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.5">
+    <row r="20" spans="1:2" ht="26">
       <c r="A20" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26">
+    <row r="21" spans="1:2" ht="26">
       <c r="A21" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="38.5">
+    <row r="22" spans="1:2" ht="14.5">
       <c r="A22" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.5">
+    <row r="23" spans="1:2" ht="26">
       <c r="A23" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.5">
+    <row r="24" spans="1:2" ht="26">
       <c r="A24" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26">
+    <row r="25" spans="1:2" ht="26">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5">
+    <row r="26" spans="1:2" ht="25">
       <c r="A26" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26">
+    <row r="27" spans="1:2" ht="14.5">
       <c r="A27" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="26">
+    <row r="28" spans="1:2" ht="26">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26">
+    <row r="29" spans="1:2" ht="26">
       <c r="A29" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26">
+    <row r="30" spans="1:2" ht="14.5">
       <c r="A30" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26">
+    <row r="31" spans="1:2" ht="14.5">
       <c r="A31" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26">
+    <row r="32" spans="1:2" ht="38.5">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="26">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.5">
       <c r="A33" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.5">
       <c r="A34" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.5">
       <c r="A35" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="26">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.5">
       <c r="A37" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26">
       <c r="A38" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="38.5">
       <c r="A39" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="26">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26">
       <c r="A40" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="38.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.5">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.5">
       <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.5">
       <c r="A44" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="26">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.5">
       <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.5">
       <c r="A46" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.5">
       <c r="A47" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.5">
       <c r="A48" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26">
       <c r="A49" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.5">
       <c r="A50" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.5">
+      <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.5">
+      <c r="A52" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.5">
+      <c r="A53" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.5">
+      <c r="A54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.5">
+      <c r="A55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.5">
+      <c r="A56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.5">
+      <c r="A57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26">
+      <c r="A58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.5">
+      <c r="A59" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.5">
+      <c r="A60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.5">
+      <c r="A61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.5">
+      <c r="A62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.5">
+      <c r="A63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="26">
+      <c r="A64" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="26">
+      <c r="A65" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="26">
+      <c r="A66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14">
+      <c r="A67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.5">
+      <c r="A68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26">
+      <c r="A69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="26">
+      <c r="A70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26">
+      <c r="A71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26">
+      <c r="A72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="28.5">
+      <c r="A73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.5">
+      <c r="A74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="28.5">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="28.5">
+      <c r="A76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="28.5">
+      <c r="A77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="26">
+      <c r="A78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.5">
+      <c r="A79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.5">
+      <c r="A80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="28.5">
+      <c r="A81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="26">
+      <c r="A82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.5">
+      <c r="A83" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.5">
+      <c r="A84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.5">
+      <c r="A85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.5">
+      <c r="A86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.5">
+      <c r="A87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="38.5">
+      <c r="A88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.5">
+      <c r="A89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.5">
+      <c r="A90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="26">
+      <c r="A91" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.5">
+      <c r="A92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.5">
+      <c r="A93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.5">
+      <c r="A94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.5">
+      <c r="A95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.5">
+      <c r="A96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14.5">
+      <c r="A97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.5">
+      <c r="A98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.5">
+      <c r="A99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14.5">
+      <c r="A100" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14">
+      <c r="A105" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14">
+      <c r="A106" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14">
+      <c r="A107" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14">
+      <c r="A108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14">
+      <c r="A109" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="25.5">
+      <c r="A110" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="25.5">
+      <c r="A111" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="25.5">
+      <c r="A112" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="38">
+      <c r="A113" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14">
+      <c r="A114" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="25.5">
+      <c r="A115" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14">
+      <c r="A116" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="25.5">
+      <c r="A117" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14">
+      <c r="A118" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14">
+      <c r="A119" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="25.5">
+      <c r="A120" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14">
+      <c r="A121" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="38">
+      <c r="A122" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14">
+      <c r="A123" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14">
+      <c r="A124" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14">
+      <c r="A125" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14">
+      <c r="A126" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14">
+      <c r="A127" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14">
+      <c r="A128" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14">
+      <c r="A129" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="26">
+      <c r="A130" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="25">
+      <c r="A133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="25">
+      <c r="A134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14">
+      <c r="A136" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" ht="14">
+      <c r="A137" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" ht="14">
+      <c r="A138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" ht="14">
+      <c r="A139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" ht="28">
+      <c r="A140" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" ht="28">
+      <c r="A141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" ht="14">
+      <c r="A142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:3" ht="25">
+      <c r="A143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="25">
+      <c r="A149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="25">
+      <c r="A153" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="25">
+      <c r="A155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="37.5">
+      <c r="A158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="37.5">
+      <c r="A162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="25">
+      <c r="A170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="50">
+      <c r="A175" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="25">
+      <c r="A176" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="25">
+      <c r="A177" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="25">
+      <c r="A179" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="25">
+      <c r="A180" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="25">
+      <c r="A182" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="25">
+      <c r="A185" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14.5">
+      <c r="A186" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14.5">
+      <c r="A187" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="38.5">
+      <c r="A188" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14.5">
+      <c r="A189" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14.5">
+      <c r="A190" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14.5">
+      <c r="A191" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="26">
+      <c r="A192" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14.5">
+      <c r="A193" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="26">
+      <c r="A194" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="38.5">
+      <c r="A195" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="26">
+      <c r="A196" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="26">
+      <c r="A197" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14.5">
+      <c r="A198" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14.5">
+      <c r="A199" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14.5">
+      <c r="A200" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14.5">
+      <c r="A201" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14.5">
+      <c r="A202" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14.5">
+      <c r="A203" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14.5">
+      <c r="A204" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="26">
+      <c r="A205" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14.5">
+      <c r="A206" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14.5">
+      <c r="A207" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14.5">
+      <c r="A208" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14.5">
+      <c r="A209" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14.5">
+      <c r="A210" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14.5">
+      <c r="A211" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14.5">
+      <c r="A212" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14.5">
+      <c r="A213" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="26">
+      <c r="A214" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14.5">
+      <c r="A215" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14.5">
+      <c r="A216" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14.5">
+      <c r="A217" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14.5">
+      <c r="A218" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14.5">
+      <c r="A219" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="26">
+      <c r="A220" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="26">
+      <c r="A221" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="26">
+      <c r="A222" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14.5">
+      <c r="A223" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="26">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="224" spans="1:2" ht="14.5">
+      <c r="A224" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="38.5">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="225" spans="1:2" ht="26">
+      <c r="A225" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="26">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="226" spans="1:2" ht="14.5">
+      <c r="A226" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="26">
-      <c r="A54" s="6" t="s">
+    </row>
+    <row r="227" spans="1:2" ht="14.5">
+      <c r="A227" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="26">
-      <c r="A55" s="6" t="s">
+    </row>
+    <row r="228" spans="1:2" ht="14.5">
+      <c r="A228" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="38.5">
-      <c r="A56" s="6" t="s">
+    </row>
+    <row r="229" spans="1:2" ht="38.5">
+      <c r="A229" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.5">
-      <c r="A57" s="6" t="s">
+    </row>
+    <row r="230" spans="1:2" ht="14.5">
+      <c r="A230" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="26">
-      <c r="A58" s="6" t="s">
+    </row>
+    <row r="231" spans="1:2" ht="14.5">
+      <c r="A231" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="26">
-      <c r="A59" s="6" t="s">
+    </row>
+    <row r="232" spans="1:2" ht="14.5">
+      <c r="A232" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.5">
-      <c r="A60" s="6" t="s">
+    </row>
+    <row r="233" spans="1:2" ht="14.5">
+      <c r="A233" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="26">
-      <c r="A61" s="6" t="s">
+    </row>
+    <row r="234" spans="1:2" ht="14.5">
+      <c r="A234" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.5">
-      <c r="A62" s="6" t="s">
+    </row>
+    <row r="235" spans="1:2" ht="14.5">
+      <c r="A235" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.5">
-      <c r="A63" s="6" t="s">
+    </row>
+    <row r="236" spans="1:2" ht="14.5">
+      <c r="A236" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="26">
-      <c r="A64" s="6" t="s">
+    </row>
+    <row r="237" spans="1:2" ht="14.5">
+      <c r="A237" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.5">
-      <c r="A65" s="6" t="s">
+    </row>
+    <row r="238" spans="1:2" ht="14.5">
+      <c r="A238" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="26">
-      <c r="A66" s="6" t="s">
+    </row>
+    <row r="239" spans="1:2" ht="14.5">
+      <c r="A239" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14">
-      <c r="A67" s="7" t="s">
+    </row>
+    <row r="240" spans="1:2" ht="14">
+      <c r="A240" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="26">
-      <c r="A68" s="6" t="s">
+    </row>
+    <row r="241" spans="1:2" ht="14.5">
+      <c r="A241" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.5">
-      <c r="A69" s="6" t="s">
+    </row>
+    <row r="242" spans="1:2" ht="14.5">
+      <c r="A242" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="26">
-      <c r="A70" s="6" t="s">
+    </row>
+    <row r="243" spans="1:2" ht="14.5">
+      <c r="A243" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.5">
-      <c r="A71" s="6" t="s">
+    </row>
+    <row r="244" spans="1:2" ht="14.5">
+      <c r="A244" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.5">
-      <c r="A72" s="6" t="s">
+    </row>
+    <row r="245" spans="1:2" ht="14.5">
+      <c r="A245" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="26">
-      <c r="A73" s="6" t="s">
+    </row>
+    <row r="246" spans="1:2" ht="14.5">
+      <c r="A246" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="26">
-      <c r="A74" s="6" t="s">
+    </row>
+    <row r="247" spans="1:2" ht="28.5">
+      <c r="A247" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="26">
-      <c r="A75" s="6" t="s">
+    </row>
+    <row r="248" spans="1:2" ht="14.5">
+      <c r="A248" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B248" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="26">
-      <c r="A76" s="6" t="s">
+    </row>
+    <row r="249" spans="1:2" ht="28.5">
+      <c r="A249" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B249" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="26">
-      <c r="A77" s="6" t="s">
+    </row>
+    <row r="250" spans="1:2" ht="28.5">
+      <c r="A250" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B250" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="51">
-      <c r="A78" s="6" t="s">
+    </row>
+    <row r="251" spans="1:2" ht="26">
+      <c r="A251" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="38.5">
-      <c r="A79" s="6" t="s">
+    </row>
+    <row r="252" spans="1:2" ht="42.5">
+      <c r="A252" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B252" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="26">
-      <c r="A80" s="6" t="s">
+    </row>
+    <row r="253" spans="1:2" ht="14.5">
+      <c r="A253" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="38.5">
-      <c r="A81" s="6" t="s">
+    </row>
+    <row r="254" spans="1:2" ht="42.5">
+      <c r="A254" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="26">
-      <c r="A82" s="6" t="s">
+    </row>
+    <row r="255" spans="1:2" ht="14.5">
+      <c r="A255" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="38.5">
-      <c r="A83" s="6" t="s">
+    </row>
+    <row r="256" spans="1:2" ht="28.5">
+      <c r="A256" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="26">
-      <c r="A84" s="6" t="s">
+    </row>
+    <row r="257" spans="1:2" ht="14.5">
+      <c r="A257" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B257" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="26">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="258" spans="1:2" ht="14.5">
+      <c r="A258" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="26">
-      <c r="A86" s="6" t="s">
+    </row>
+    <row r="259" spans="1:2" ht="26">
+      <c r="A259" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="26">
-      <c r="A87" s="6" t="s">
+    </row>
+    <row r="260" spans="1:2" ht="14.5">
+      <c r="A260" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="38.5">
-      <c r="A88" s="6" t="s">
+    </row>
+    <row r="261" spans="1:2" ht="38.5">
+      <c r="A261" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.5">
-      <c r="A89" s="6" t="s">
+    </row>
+    <row r="262" spans="1:2" ht="14.5">
+      <c r="A262" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="26">
-      <c r="A90" s="6" t="s">
+    </row>
+    <row r="263" spans="1:2" ht="14.5">
+      <c r="A263" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="26">
-      <c r="A91" s="6" t="s">
+    </row>
+    <row r="264" spans="1:2" ht="14.5">
+      <c r="A264" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.5">
-      <c r="A92" s="6" t="s">
+    </row>
+    <row r="265" spans="1:2" ht="14.5">
+      <c r="A265" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="26">
-      <c r="A93" s="6" t="s">
+    </row>
+    <row r="266" spans="1:2" ht="14.5">
+      <c r="A266" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.5">
-      <c r="A94" s="6" t="s">
+    </row>
+    <row r="267" spans="1:2" ht="14.5">
+      <c r="A267" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.5">
-      <c r="A95" s="6" t="s">
+    </row>
+    <row r="268" spans="1:2" ht="14.5">
+      <c r="A268" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="38.5">
-      <c r="A96" s="6" t="s">
+    </row>
+    <row r="269" spans="1:2" ht="26">
+      <c r="A269" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="26">
-      <c r="A97" s="6" t="s">
+    </row>
+    <row r="270" spans="1:2" ht="14.5">
+      <c r="A270" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B270" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="26">
-      <c r="A98" s="6" t="s">
+    </row>
+    <row r="271" spans="1:2" ht="14.5">
+      <c r="A271" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="26">
-      <c r="A99" s="6" t="s">
+    </row>
+    <row r="272" spans="1:2" ht="26">
+      <c r="A272" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="26">
-      <c r="A100" s="6" t="s">
+    </row>
+    <row r="273" spans="1:2" ht="26">
+      <c r="A273" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="25">
-      <c r="A101" s="1" t="s">
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="25">
-      <c r="A102" s="1" t="s">
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="25">
-      <c r="A103" s="1" t="s">
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B276" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="25">
-      <c r="A104" s="1" t="s">
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B277" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="25.5">
-      <c r="A105" s="7" t="s">
+    </row>
+    <row r="278" spans="1:2" ht="14">
+      <c r="A278" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B278" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="38">
-      <c r="A106" s="7" t="s">
+    </row>
+    <row r="279" spans="1:2" ht="25.5">
+      <c r="A279" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B279" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14">
-      <c r="A107" s="7" t="s">
+    </row>
+    <row r="280" spans="1:2" ht="14">
+      <c r="A280" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14">
-      <c r="A108" s="7" t="s">
+    </row>
+    <row r="281" spans="1:2" ht="14">
+      <c r="A281" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B281" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="50.5">
-      <c r="A109" s="7" t="s">
+    </row>
+    <row r="282" spans="1:2" ht="25.5">
+      <c r="A282" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B282" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="25.5">
-      <c r="A110" s="7" t="s">
+    </row>
+    <row r="283" spans="1:2" ht="14">
+      <c r="A283" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B283" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="25.5">
-      <c r="A111" s="7" t="s">
+    </row>
+    <row r="284" spans="1:2" ht="14">
+      <c r="A284" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B284" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14">
-      <c r="A112" s="7" t="s">
+    </row>
+    <row r="285" spans="1:2" ht="14">
+      <c r="A285" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="25.5">
-      <c r="A113" s="7" t="s">
+    </row>
+    <row r="286" spans="1:2" ht="14">
+      <c r="A286" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="14">
-      <c r="A114" s="7" t="s">
+    </row>
+    <row r="287" spans="1:2" ht="14">
+      <c r="A287" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B287" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="25.5">
-      <c r="A115" s="7" t="s">
+    </row>
+    <row r="288" spans="1:2" ht="25.5">
+      <c r="A288" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B288" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="14">
-      <c r="A116" s="7" t="s">
+    </row>
+    <row r="289" spans="1:2" ht="14">
+      <c r="A289" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B289" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="14">
-      <c r="A117" s="7" t="s">
+    </row>
+    <row r="290" spans="1:2" ht="14">
+      <c r="A290" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B290" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="14">
-      <c r="A118" s="7" t="s">
+    </row>
+    <row r="291" spans="1:2" ht="14">
+      <c r="A291" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B291" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="25.5">
-      <c r="A119" s="7" t="s">
+    </row>
+    <row r="292" spans="1:2" ht="25.5">
+      <c r="A292" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="25.5">
-      <c r="A120" s="7" t="s">
+    </row>
+    <row r="293" spans="1:2" ht="14">
+      <c r="A293" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="25.5">
-      <c r="A121" s="7" t="s">
+    </row>
+    <row r="294" spans="1:2" ht="25.5">
+      <c r="A294" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B294" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="25.5">
-      <c r="A122" s="7" t="s">
+    </row>
+    <row r="295" spans="1:2" ht="14">
+      <c r="A295" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B295" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="25.5">
-      <c r="A123" s="7" t="s">
+    </row>
+    <row r="296" spans="1:2" ht="14">
+      <c r="A296" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B296" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="25.5">
-      <c r="A124" s="7" t="s">
+    </row>
+    <row r="297" spans="1:2" ht="38">
+      <c r="A297" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B297" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="25.5">
-      <c r="A125" s="7" t="s">
+    </row>
+    <row r="298" spans="1:2" ht="14">
+      <c r="A298" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B298" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14">
-      <c r="A126" s="7" t="s">
+    </row>
+    <row r="299" spans="1:2" ht="14">
+      <c r="A299" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B299" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="14">
-      <c r="A127" s="7" t="s">
+    </row>
+    <row r="300" spans="1:2" ht="14">
+      <c r="A300" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="38">
-      <c r="A128" s="7" t="s">
+    </row>
+    <row r="301" spans="1:2" ht="38">
+      <c r="A301" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B301" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14">
-      <c r="A129" s="7" t="s">
+    </row>
+    <row r="302" spans="1:2" ht="14">
+      <c r="A302" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B302" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14.5">
-      <c r="A130" s="6" t="s">
+    </row>
+    <row r="303" spans="1:2" ht="14.5">
+      <c r="A303" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B303" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="14">
-      <c r="B136" s="5"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" ht="14">
-      <c r="B137" s="4"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" ht="14">
-      <c r="B138" s="4"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" ht="14">
-      <c r="B139" s="4"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" ht="14">
-      <c r="B140" s="4"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" ht="14">
-      <c r="B141" s="4"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" ht="14">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="B304" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E131" xr:uid="{3C091B37-A993-4913-B095-924BB708172C}"/>
+  <autoFilter ref="A1:E1" xr:uid="{64C3DAC7-61B2-4AB0-BF6F-66C5C972A233}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85833FD5-DA50-40C4-B611-1C8593047149}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FEA5B062-75D9-44A1-A623-31D6CD29F640}">
           <x14:formula1>
             <xm:f>'C:\Users\Daljeet\Downloads\[ABP_FY''26 Issues v2 (1).xlsx]List'!#REF!</xm:f>
           </x14:formula1>
@@ -12477,7 +13237,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="43.5">
+    <row r="22" spans="1:12" ht="58">
       <c r="A22" s="74" t="s">
         <v>164</v>
       </c>
@@ -13096,7 +13856,7 @@
       </c>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" ht="42.5">
+    <row r="39" spans="1:12" ht="56.5">
       <c r="A39" s="74" t="s">
         <v>164</v>
       </c>
@@ -13207,7 +13967,7 @@
       </c>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" ht="168.5">
+    <row r="42" spans="1:12" ht="182.5">
       <c r="A42" s="74" t="s">
         <v>164</v>
       </c>
@@ -16475,7 +17235,7 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="112.5">
+    <row r="3" spans="1:12" ht="126.5">
       <c r="A3" s="74" t="s">
         <v>164</v>
       </c>
@@ -16660,7 +17420,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="70.5">
+    <row r="8" spans="1:12" ht="84.5">
       <c r="A8" s="74" t="s">
         <v>164</v>
       </c>
@@ -16697,7 +17457,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="70.5">
+    <row r="9" spans="1:12" ht="84.5">
       <c r="A9" s="74" t="s">
         <v>164</v>
       </c>
